--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stevens\CS - 555 Agile\cs555tm042022Fall-main\cs555tm042022Fall-main\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEDBA4C-9BBA-47AC-8CF1-482BD2801796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
   <si>
     <t>Initials</t>
   </si>
@@ -55,15 +54,6 @@
   </si>
   <si>
     <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>at</t>
   </si>
   <si>
     <t>GitHub Repository:</t>
@@ -90,16 +80,10 @@
     <t>Birth before death</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>US05</t>
   </si>
   <si>
     <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
   <si>
     <t>US08</t>
@@ -174,64 +158,13 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>Store birth date</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>Store death date</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>gh(at)</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>Find marriage date</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
     <t>Keep doing:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
   </si>
   <si>
     <t>Story Description</t>
@@ -614,11 +547,32 @@
   <si>
     <t>gpk</t>
   </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>ppatel14@stevens.edu</t>
+  </si>
+  <si>
+    <t>parth3399</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>backlog</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -691,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,6 +672,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -737,7 +692,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -811,7 +766,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8084-4DF4-A68A-A40CF043ED70}"/>
             </c:ext>
@@ -826,11 +781,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="751384951"/>
-        <c:axId val="261410492"/>
+        <c:axId val="307067368"/>
+        <c:axId val="307067752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="751384951"/>
+        <c:axId val="307067368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,6 +809,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
@@ -875,14 +831,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261410492"/>
+        <c:crossAx val="307067752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="261410492"/>
+        <c:axId val="307067752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,6 +871,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -939,7 +896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751384951"/>
+        <c:crossAx val="307067368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,7 +914,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1013,7 +970,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2209-4441-BC72-8A9E27ABD0B3}"/>
             </c:ext>
@@ -1028,11 +985,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1881607879"/>
-        <c:axId val="2018318546"/>
+        <c:axId val="307070920"/>
+        <c:axId val="307333600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1881607879"/>
+        <c:axId val="307070920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,6 +1013,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -1077,14 +1035,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2018318546"/>
+        <c:crossAx val="307333600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2018318546"/>
+        <c:axId val="307333600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,6 +1075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1141,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881607879"/>
+        <c:crossAx val="307070920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,7 +1132,7 @@
         <xdr:cNvPr id="1232559327" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1163,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1271,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1355,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1439,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1547,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1631,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1720,7 @@
         <xdr:cNvPr id="1994778976" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060E9E576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060E9E576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,11 +1938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2036,27 +1995,37 @@
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2070,10 +2039,10 @@
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3069,7 +3038,8 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{5B7F2F2D-67BE-4C0B-A62D-A59A0F9037FA}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3077,10 +3047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3094,19 +3066,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3135,16 +3107,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3152,37 +3124,120 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4181,7 +4236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4199,19 +4254,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -4221,13 +4276,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -4237,7 +4292,7 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -4263,25 +4318,25 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4305,7 +4360,7 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B15" s="8">
         <v>42527</v>
@@ -4321,7 +4376,7 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8">
         <v>42540</v>
@@ -4346,7 +4401,7 @@
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8">
         <v>42554</v>
@@ -4371,7 +4426,7 @@
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8">
         <v>42568</v>
@@ -4396,7 +4451,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8">
         <v>42582</v>
@@ -8351,7 +8406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8369,22 +8424,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12437,10 +12492,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12458,100 +12515,93 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
         <v>120</v>
       </c>
-      <c r="H2" s="2">
-        <v>90</v>
-      </c>
-      <c r="I2" s="4">
-        <v>41906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12559,24 +12609,12 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>200</v>
-      </c>
-      <c r="F8" s="2">
-        <v>120</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12584,42 +12622,22 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12628,7 +12646,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -12638,20 +12656,16 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12660,14 +12674,12 @@
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16593,7 +16605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16605,31 +16617,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17638,7 +17650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17650,31 +17662,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18683,7 +18695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18695,31 +18707,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19728,10 +19740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19743,13 +19757,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -19777,464 +19791,464 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Stevens\CS - 555 Agile\cs555tm042022Fall-main\cs555tm042022Fall-main\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B96641-242F-44D9-8044-D256339DFA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,13 +23,14 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
   <si>
     <t>Initials</t>
   </si>
@@ -572,7 +574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -692,7 +694,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -766,7 +768,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8084-4DF4-A68A-A40CF043ED70}"/>
             </c:ext>
@@ -809,7 +811,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
@@ -871,7 +872,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -970,7 +970,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2209-4441-BC72-8A9E27ABD0B3}"/>
             </c:ext>
@@ -1013,7 +1013,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
@@ -1075,7 +1074,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1132,7 +1130,7 @@
         <xdr:cNvPr id="1232559327" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF5C7749}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1161,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1269,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1353,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1437,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1545,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1629,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1718,7 @@
         <xdr:cNvPr id="1994778976" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060E9E576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060E9E576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3038,8 +3036,8 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3047,11 +3045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3238,29 +3236,157 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4236,7 +4362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8406,7 +8532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12492,11 +12618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12587,15 +12713,33 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16605,7 +16749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17650,7 +17794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18695,7 +18839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19740,11 +19884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gutha Nithin Reddy\Desktop\github_data\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B96641-242F-44D9-8044-D256339DFA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD350A76-BCCC-47C9-900B-8E6C417EEF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Initials</t>
   </si>
@@ -570,6 +570,21 @@
   <si>
     <t>Ongoing</t>
   </si>
+  <si>
+    <t>nrg</t>
+  </si>
+  <si>
+    <t>Nithin Reddy</t>
+  </si>
+  <si>
+    <t>Gutha</t>
+  </si>
+  <si>
+    <t>ngutha@stevens.edu</t>
+  </si>
+  <si>
+    <t>NithinReddyGutha</t>
+  </si>
 </sst>
 </file>
 
@@ -647,8 +662,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -674,7 +689,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1939,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2026,11 +2040,21 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3038,6 +3062,7 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{620B3EBE-6A25-4B39-99BA-5162008CDB53}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3048,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3152,7 +3177,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3169,7 +3194,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3186,7 +3211,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3203,7 +3228,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3220,7 +3245,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3237,16 +3262,16 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3254,16 +3279,16 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3271,16 +3296,16 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3288,16 +3313,16 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3305,16 +3330,16 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3322,16 +3347,16 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -3339,16 +3364,16 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -3356,23 +3381,27 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12701,7 +12730,7 @@
       <c r="C3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E3">
@@ -12737,7 +12766,7 @@
       <c r="C5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>175</v>
       </c>
       <c r="I5" s="4"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gutha Nithin Reddy\Desktop\github_data\cs555tm062022Fall\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team_6_CS555\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD350A76-BCCC-47C9-900B-8E6C417EEF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD923F7-C8F8-4734-A3E0-1A3D4EA72C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -532,9 +532,6 @@
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
-    <t>cs555tm042022Fall</t>
-  </si>
-  <si>
     <t>Gautham</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>NithinReddyGutha</t>
+  </si>
+  <si>
+    <t>https://github.com/gauthampkrishnan/cs555tm062022Fall/tree/main/Sprint%201</t>
   </si>
 </sst>
 </file>
@@ -1953,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2007,64 +2007,64 @@
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>163</v>
+      <c r="E9" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3063,6 +3063,7 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{620B3EBE-6A25-4B39-99BA-5162008CDB53}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{B2CD9C2B-D71F-4DEC-A4E8-D1EC0BA9C166}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3136,10 +3137,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3153,10 +3154,10 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3170,10 +3171,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3187,10 +3188,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3204,10 +3205,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3221,10 +3222,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3238,10 +3239,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3255,10 +3256,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3272,10 +3273,10 @@
         <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3289,10 +3290,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,10 +3307,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3323,10 +3324,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3340,10 +3341,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3357,10 +3358,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3374,10 +3375,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3391,10 +3392,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8564,7 +8565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12650,8 +12653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12705,10 +12708,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
@@ -12728,10 +12731,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -12749,10 +12752,16 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>140</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -12764,10 +12773,16 @@
         <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
       </c>
       <c r="I5" s="4"/>
     </row>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gutha Nithin Reddy\Desktop\github_data\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD350A76-BCCC-47C9-900B-8E6C417EEF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32570BE-8605-4AD7-B4CA-C4CCDC3B8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
   <si>
     <t>Initials</t>
   </si>
@@ -1953,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3401,14 +3401,138 @@
       <c r="A18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12650,7 +12774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -12772,13 +12896,33 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19916,8 +20060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team_6_CS555\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gutha Nithin Reddy\Desktop\github_data\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD923F7-C8F8-4734-A3E0-1A3D4EA72C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32570BE-8605-4AD7-B4CA-C4CCDC3B8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
   <si>
     <t>Initials</t>
   </si>
@@ -532,6 +532,9 @@
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
+    <t>cs555tm042022Fall</t>
+  </si>
+  <si>
     <t>Gautham</t>
   </si>
   <si>
@@ -581,9 +584,6 @@
   </si>
   <si>
     <t>NithinReddyGutha</t>
-  </si>
-  <si>
-    <t>https://github.com/gauthampkrishnan/cs555tm062022Fall/tree/main/Sprint%201</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +1954,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2007,64 +2007,64 @@
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>180</v>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3063,7 +3063,6 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{620B3EBE-6A25-4B39-99BA-5162008CDB53}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{B2CD9C2B-D71F-4DEC-A4E8-D1EC0BA9C166}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3074,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3137,10 +3136,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3154,10 +3153,10 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3171,10 +3170,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,10 +3187,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3205,10 +3204,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3222,10 +3221,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3239,10 +3238,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3256,10 +3255,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3273,10 +3272,10 @@
         <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3290,10 +3289,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3307,10 +3306,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3324,10 +3323,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3341,10 +3340,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3358,10 +3357,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3375,10 +3374,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3392,24 +3391,148 @@
         <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8565,9 +8688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12653,8 +12774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12708,10 +12829,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
@@ -12731,10 +12852,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -12752,16 +12873,10 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -12773,27 +12888,41 @@
         <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-      <c r="F5">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19931,8 +20060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gutha Nithin Reddy\Desktop\github_data\cs555tm062022Fall\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team_6_CS555\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32570BE-8605-4AD7-B4CA-C4CCDC3B8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F6A105-A16B-48BB-8083-D208DB4E4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId8"/>
     <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -532,9 +532,6 @@
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
-    <t>cs555tm042022Fall</t>
-  </si>
-  <si>
     <t>Gautham</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>NithinReddyGutha</t>
+  </si>
+  <si>
+    <t>cs555tm062022Fall</t>
   </si>
 </sst>
 </file>
@@ -1953,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2007,53 +2007,53 @@
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3073,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -3136,10 +3136,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3153,10 +3153,10 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3170,10 +3170,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3187,10 +3187,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3204,10 +3204,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3221,10 +3221,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3238,10 +3238,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3255,10 +3255,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3272,10 +3272,10 @@
         <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3289,10 +3289,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,10 +3306,10 @@
         <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3323,10 +3323,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3340,10 +3340,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3357,10 +3357,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3374,10 +3374,10 @@
         <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3391,10 +3391,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3408,10 +3408,10 @@
         <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3425,10 +3425,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3442,10 +3442,10 @@
         <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3459,10 +3459,10 @@
         <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3476,10 +3476,10 @@
         <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3493,10 +3493,10 @@
         <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3510,10 +3510,10 @@
         <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3527,10 +3527,10 @@
         <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12829,10 +12829,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2">
         <v>50</v>
@@ -12852,10 +12852,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -12873,10 +12873,10 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -12888,10 +12888,10 @@
         <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -12903,10 +12903,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -12918,10 +12918,10 @@
         <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="4"/>
     </row>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team_6_CS555\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F6A105-A16B-48BB-8083-D208DB4E4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFABE38E-2490-43CC-9B7D-341A9E96B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team_6_CS555\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\New folder (8)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFABE38E-2490-43CC-9B7D-341A9E96B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01BC9E-C0F6-4484-9834-8695A4FEA871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\New folder (8)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team6_Proj\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01BC9E-C0F6-4484-9834-8695A4FEA871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D74421-14E7-4886-990C-260F0F057C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="912" yWindow="2520" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3074,7 +3074,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4518,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12774,8 +12774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12876,22 +12876,34 @@
         <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
       </c>
       <c r="I5" s="4"/>
     </row>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team6_Proj\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D74421-14E7-4886-990C-260F0F057C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D34230-0598-41B7-B88E-382F0B517F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="2520" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="912" yWindow="2520" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3074,7 +3074,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>167</v>
@@ -12775,7 +12775,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12888,10 +12888,10 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>167</v>
@@ -20072,8 +20072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team6_Proj\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D34230-0598-41B7-B88E-382F0B517F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A17016A-3832-4827-A93E-57812EA88586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="2520" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1608" yWindow="3216" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3300,10 +3300,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>167</v>
@@ -3385,10 +3385,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>167</v>
@@ -12774,7 +12774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -20072,8 +20072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\Team6_Proj\cs555tm062022Fall\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A17016A-3832-4827-A93E-57812EA88586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9502379-C0AB-4FC6-B7C6-8C9B8DA5A081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="3216" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19920" yWindow="1536" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="182">
   <si>
     <t>Initials</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>cs555tm062022Fall</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1172,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1114425" cy="628650"/>
+    <xdr:ext cx="1114425" cy="979170"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -1183,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4793550" y="3470438"/>
-          <a:ext cx="1104900" cy="619125"/>
+          <a:off x="1371600" y="1459230"/>
+          <a:ext cx="1114425" cy="979170"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3073,7 +3076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4518,7 +4521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12775,7 +12780,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12879,12 +12884,20 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>120</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -12900,12 +12913,20 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>180</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\working_folder\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9502379-C0AB-4FC6-B7C6-8C9B8DA5A081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E17801-7255-4F9A-BA8C-820144BA4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19920" yWindow="1536" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1284" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="183">
   <si>
     <t>Initials</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -3076,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4521,7 +4524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8693,7 +8696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12780,7 +12785,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16958,7 +16963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16994,8 +17001,64 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18003,11 +18066,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18039,8 +18106,34 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Sprint 1/Team06Report.xlsx
+++ b/Sprint 1/Team06Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautham P Krishnan\Desktop\working_folder\cs555tm062022Fall\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E17801-7255-4F9A-BA8C-820144BA4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF76148-CDAC-42E4-B2A4-A530A0E450C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1284" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22176" yWindow="1080" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="184">
   <si>
     <t>Initials</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -16964,7 +16967,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17012,22 +17015,7 @@
         <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17041,22 +17029,7 @@
         <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>120</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
